--- a/Files/扫描仪.xlsx
+++ b/Files/扫描仪.xlsx
@@ -46,9 +46,6 @@
     <t>存放位置</t>
   </si>
   <si>
-    <t>PDE 4F</t>
-  </si>
-  <si>
     <t>管理担当</t>
   </si>
   <si>
@@ -100,11 +97,15 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>33f</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>正常使用</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>C03</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>C08</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -434,7 +435,7 @@
   <dimension ref="A1:I3"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F4" sqref="F4"/>
+      <selection activeCell="G4" sqref="G4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -456,22 +457,22 @@
         <v>3</v>
       </c>
       <c r="D1" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="E1" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="E1" s="1" t="s">
+      <c r="F1" s="1" t="s">
         <v>15</v>
-      </c>
-      <c r="F1" s="1" t="s">
-        <v>16</v>
       </c>
       <c r="G1" s="1" t="s">
         <v>7</v>
       </c>
       <c r="H1" s="1" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="I1" s="1" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
     </row>
     <row r="2" spans="1:9" x14ac:dyDescent="0.2">
@@ -479,7 +480,7 @@
         <v>1</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="C2" s="1" t="s">
         <v>4</v>
@@ -491,16 +492,16 @@
         <v>6</v>
       </c>
       <c r="F2" s="1" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="G2" s="1" t="s">
-        <v>8</v>
+        <v>23</v>
       </c>
       <c r="H2" s="1" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="I2" s="1" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
     </row>
     <row r="3" spans="1:9" x14ac:dyDescent="0.2">
@@ -508,28 +509,28 @@
         <v>2</v>
       </c>
       <c r="B3" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="C3" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="C3" s="1" t="s">
+      <c r="D3" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="D3" s="1" t="s">
+      <c r="E3" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="E3" s="1" t="s">
+      <c r="F3" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="F3" s="1" t="s">
-        <v>22</v>
-      </c>
       <c r="G3" s="1" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="H3" s="1" t="s">
         <v>1</v>
       </c>
       <c r="I3" s="1" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
     </row>
   </sheetData>
